--- a/Resources/Testing/Values/Tabular_reading.xlsx
+++ b/Resources/Testing/Values/Tabular_reading.xlsx
@@ -1,28 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4b08e7786dff393/Documents/BSc/23- Final Project/GreenMoist/Resurces/Testing Values/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4b08e7786dff393/Documents/BSc/23- Final Project/GreenMoist/Resources/Testing/Values/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06FC1E88-51BC-4409-9A82-77CC9639A317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{06FC1E88-51BC-4409-9A82-77CC9639A317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57EBA8C7-F778-4077-81E3-94C8B45F2A6B}"/>
   <bookViews>
-    <workbookView xWindow="11415" yWindow="2805" windowWidth="20880" windowHeight="15345"/>
+    <workbookView xWindow="11415" yWindow="2805" windowWidth="20880" windowHeight="15345" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabular_reading" sheetId="1" r:id="rId1"/>
     <sheet name="Tabular_reading2" sheetId="2" r:id="rId2"/>
     <sheet name="soil.txt" sheetId="3" r:id="rId3"/>
+    <sheet name="Pico Water Level" sheetId="4" r:id="rId4"/>
+    <sheet name="Pico Soil" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="1243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="1246">
   <si>
     <t>0x042</t>
   </si>
@@ -3751,12 +3766,21 @@
   </si>
   <si>
     <t>Avg</t>
+  </si>
+  <si>
+    <t>Wet</t>
+  </si>
+  <si>
+    <t>Dry</t>
+  </si>
+  <si>
+    <t>Conversion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4241,11 +4265,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -4601,11 +4626,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4692,11 +4717,11 @@
         <v>93</v>
       </c>
       <c r="N2">
-        <f>J2*$I$8</f>
+        <f t="shared" ref="N2:O5" si="0">J2*$I$8</f>
         <v>2.7665201465201466</v>
       </c>
       <c r="O2">
-        <f>K2*$I$8</f>
+        <f t="shared" si="0"/>
         <v>2.8414652014652013</v>
       </c>
       <c r="P2">
@@ -4718,11 +4743,11 @@
         <v>2.787598</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E25" si="0">B3/1023*3.3</f>
+        <f t="shared" ref="E3:E25" si="1">B3/1023*3.3</f>
         <v>11.161290322580644</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F49" si="1">100-(E3*100)</f>
+        <f t="shared" ref="F3:F49" si="2">100-(E3*100)</f>
         <v>-1016.1290322580644</v>
       </c>
       <c r="H3" t="s">
@@ -4744,15 +4769,15 @@
         <v>2347</v>
       </c>
       <c r="N3">
-        <f>J3*$I$8</f>
+        <f t="shared" si="0"/>
         <v>0.29091575091575089</v>
       </c>
       <c r="O3">
-        <f>K3*$I$8</f>
+        <f t="shared" si="0"/>
         <v>2.1822710622710622</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P5" si="2">O3-N3</f>
+        <f t="shared" ref="P3:P5" si="3">O3-N3</f>
         <v>1.8913553113553112</v>
       </c>
     </row>
@@ -4770,11 +4795,11 @@
         <v>2.787598</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.161290322580644</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1016.1290322580644</v>
       </c>
       <c r="H4" t="s">
@@ -4796,15 +4821,15 @@
         <v>14</v>
       </c>
       <c r="N4">
-        <f>J4*$I$8</f>
+        <f t="shared" si="0"/>
         <v>5.3186813186813189E-2</v>
       </c>
       <c r="O4">
-        <f>K4*$I$8</f>
+        <f t="shared" si="0"/>
         <v>6.4468864468864462E-2</v>
       </c>
       <c r="P4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1282051282051273E-2</v>
       </c>
     </row>
@@ -4822,11 +4847,11 @@
         <v>2.7859859999999999</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.154838709677419</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1015.483870967742</v>
       </c>
       <c r="H5" t="s">
@@ -4848,15 +4873,15 @@
         <v>9</v>
       </c>
       <c r="N5">
-        <f>J5*$I$8</f>
+        <f t="shared" si="0"/>
         <v>0.40454212454212451</v>
       </c>
       <c r="O5">
-        <f>K5*$I$8</f>
+        <f t="shared" si="0"/>
         <v>0.41179487179487179</v>
       </c>
       <c r="P5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.2527472527472714E-3</v>
       </c>
     </row>
@@ -4874,11 +4899,11 @@
         <v>2.7884030000000002</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.164516129032258</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1016.4516129032259</v>
       </c>
     </row>
@@ -4896,11 +4921,11 @@
         <v>2.779541</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.129032258064516</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1012.9032258064517</v>
       </c>
     </row>
@@ -4918,11 +4943,11 @@
         <v>2.7827639999999998</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.141935483870968</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1014.1935483870968</v>
       </c>
       <c r="H8" t="s">
@@ -4947,11 +4972,11 @@
         <v>2.77793</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.122580645161291</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1012.258064516129</v>
       </c>
       <c r="H9" t="s">
@@ -4975,11 +5000,11 @@
         <v>2.779541</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.129032258064516</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1012.9032258064517</v>
       </c>
     </row>
@@ -4997,11 +5022,11 @@
         <v>2.7811520000000001</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.135483870967741</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1013.5483870967741</v>
       </c>
     </row>
@@ -5019,11 +5044,11 @@
         <v>2.7851810000000001</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.151612903225805</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1015.1612903225805</v>
       </c>
     </row>
@@ -5041,11 +5066,11 @@
         <v>2.7787350000000002</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.125806451612902</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1012.5806451612902</v>
       </c>
     </row>
@@ -5063,11 +5088,11 @@
         <v>2.7787350000000002</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.125806451612902</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1012.5806451612902</v>
       </c>
     </row>
@@ -5085,11 +5110,11 @@
         <v>2.7948490000000001</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.19032258064516</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1019.0322580645161</v>
       </c>
     </row>
@@ -5107,11 +5132,11 @@
         <v>2.787598</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.161290322580644</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1016.1290322580644</v>
       </c>
     </row>
@@ -5129,11 +5154,11 @@
         <v>2.7811520000000001</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.135483870967741</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1013.5483870967741</v>
       </c>
     </row>
@@ -5151,11 +5176,11 @@
         <v>2.7851810000000001</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.151612903225805</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1015.1612903225805</v>
       </c>
     </row>
@@ -5173,11 +5198,11 @@
         <v>2.7843749999999998</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.148387096774194</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1014.8387096774193</v>
       </c>
     </row>
@@ -5195,11 +5220,11 @@
         <v>2.793237</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.183870967741935</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1018.3870967741934</v>
       </c>
     </row>
@@ -5217,11 +5242,11 @@
         <v>2.7867920000000002</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.158064516129032</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1015.8064516129032</v>
       </c>
     </row>
@@ -5239,11 +5264,11 @@
         <v>2.8407710000000002</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.374193548387096</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1037.4193548387095</v>
       </c>
     </row>
@@ -5261,11 +5286,11 @@
         <v>2.8045170000000001</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.229032258064516</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1022.9032258064515</v>
       </c>
     </row>
@@ -5283,11 +5308,11 @@
         <v>2.7658450000000001</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.074193548387097</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1007.4193548387098</v>
       </c>
     </row>
@@ -5305,11 +5330,11 @@
         <v>2.793237</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.183870967741935</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1018.3870967741934</v>
       </c>
     </row>
@@ -5327,11 +5352,11 @@
         <v>0.408472</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" ref="E3:E49" si="3">D26/$I$9</f>
+        <f t="shared" ref="E26:E49" si="4">D26/$I$9</f>
         <v>3.9928836754643207E-4</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.96007116324536</v>
       </c>
     </row>
@@ -5349,11 +5374,11 @@
         <v>0.39960899999999999</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.9062463343108504E-4</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.960937536656886</v>
       </c>
     </row>
@@ -5371,11 +5396,11 @@
         <v>0.40122099999999999</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.9220039100684262E-4</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.960779960899316</v>
       </c>
     </row>
@@ -5393,11 +5418,11 @@
         <v>0.38913599999999998</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8038709677419352E-4</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.961961290322577</v>
       </c>
     </row>
@@ -5415,11 +5440,11 @@
         <v>1.50498</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4711436950146626E-3</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.852885630498534</v>
       </c>
     </row>
@@ -5437,11 +5462,11 @@
         <v>1.9980469999999999</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9531251221896382E-3</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.804687487781038</v>
       </c>
     </row>
@@ -5459,11 +5484,11 @@
         <v>2.0931150000000001</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0460557184750735E-3</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.795394428152491</v>
       </c>
     </row>
@@ -5481,11 +5506,11 @@
         <v>2.1470950000000002</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0988220918866083E-3</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.790117790811337</v>
       </c>
     </row>
@@ -5503,11 +5528,11 @@
         <v>2.1567630000000002</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1082727272727273E-3</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.789172727272728</v>
       </c>
     </row>
@@ -5525,11 +5550,11 @@
         <v>2.1817380000000002</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.132686217008798E-3</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.786731378299123</v>
       </c>
     </row>
@@ -5547,11 +5572,11 @@
         <v>1.7724610000000001</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7326109481915935E-3</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.826738905180846</v>
       </c>
     </row>
@@ -5569,11 +5594,11 @@
         <v>1.737012</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.697958944281525E-3</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.830204105571852</v>
       </c>
     </row>
@@ -5591,11 +5616,11 @@
         <v>1.712842</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6743323558162267E-3</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.832566764418374</v>
       </c>
     </row>
@@ -5613,11 +5638,11 @@
         <v>1.554932</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5199726295210166E-3</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.848002737047892</v>
       </c>
     </row>
@@ -5635,11 +5660,11 @@
         <v>1.4485840000000001</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4160156402737048E-3</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.858398435972632</v>
       </c>
     </row>
@@ -5657,11 +5682,11 @@
         <v>1.2141360000000001</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1868387096774194E-3</v>
       </c>
       <c r="F41" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.881316129032257</v>
       </c>
     </row>
@@ -5679,11 +5704,11 @@
         <v>0.65178199999999997</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.371280547409579E-4</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.936287194525903</v>
       </c>
     </row>
@@ -5701,11 +5726,11 @@
         <v>0.51401399999999997</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.0245747800586502E-4</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.949754252199412</v>
       </c>
     </row>
@@ -5723,11 +5748,11 @@
         <v>0.3271</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1974584555229715E-4</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.968025415444771</v>
       </c>
     </row>
@@ -5745,11 +5770,11 @@
         <v>0.325488</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1817008797653957E-4</v>
       </c>
       <c r="F45" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.96818299120234</v>
       </c>
     </row>
@@ -5767,11 +5792,11 @@
         <v>0.322266</v>
       </c>
       <c r="E46" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1502052785923755E-4</v>
       </c>
       <c r="F46" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.968497947214075</v>
       </c>
     </row>
@@ -5789,11 +5814,11 @@
         <v>0.31340299999999999</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0635679374389053E-4</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.969364320625616</v>
       </c>
     </row>
@@ -5811,11 +5836,11 @@
         <v>0.29084500000000002</v>
       </c>
       <c r="E48" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8430596285434996E-4</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.971569403714568</v>
       </c>
     </row>
@@ -5833,11 +5858,11 @@
         <v>0.29165000000000002</v>
       </c>
       <c r="E49" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8509286412512223E-4</v>
       </c>
       <c r="F49" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.971490713587485</v>
       </c>
     </row>
@@ -6522,7 +6547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6536,7 +6561,7 @@
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -6550,7 +6575,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>26</v>
       </c>
@@ -6568,7 +6593,7 @@
         <v>11.112903225806452</v>
       </c>
     </row>
-    <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>26</v>
       </c>
@@ -6586,7 +6611,7 @@
         <v>11.025806451612903</v>
       </c>
     </row>
-    <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>26</v>
       </c>
@@ -6604,7 +6629,7 @@
         <v>11.038709677419355</v>
       </c>
     </row>
-    <row r="5" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>26</v>
       </c>
@@ -6622,7 +6647,7 @@
         <v>11.361290322580645</v>
       </c>
     </row>
-    <row r="6" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>26</v>
       </c>
@@ -6640,7 +6665,7 @@
         <v>11.380645161290323</v>
       </c>
     </row>
-    <row r="7" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>26</v>
       </c>
@@ -6658,7 +6683,7 @@
         <v>5.4290322580645158</v>
       </c>
     </row>
-    <row r="8" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>26</v>
       </c>
@@ -6676,7 +6701,7 @@
         <v>5.3322580645161288</v>
       </c>
     </row>
-    <row r="9" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>26</v>
       </c>
@@ -6694,7 +6719,7 @@
         <v>5.2967741935483863</v>
       </c>
     </row>
-    <row r="10" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>26</v>
       </c>
@@ -6712,7 +6737,7 @@
         <v>5.354838709677419</v>
       </c>
     </row>
-    <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>26</v>
       </c>
@@ -6730,7 +6755,7 @@
         <v>5.3032258064516125</v>
       </c>
     </row>
-    <row r="12" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>26</v>
       </c>
@@ -6748,7 +6773,7 @@
         <v>8.9870967741935477</v>
       </c>
     </row>
-    <row r="13" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>26</v>
       </c>
@@ -6766,7 +6791,7 @@
         <v>9.6451612903225801</v>
       </c>
     </row>
-    <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>26</v>
       </c>
@@ -6784,7 +6809,7 @@
         <v>9.8419354838709676</v>
       </c>
     </row>
-    <row r="15" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>26</v>
       </c>
@@ -6802,7 +6827,7 @@
         <v>9.9580645161290313</v>
       </c>
     </row>
-    <row r="16" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>26</v>
       </c>
@@ -7851,7 +7876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J829"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22820,4 +22845,865 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E354926-1414-48FD-B3BB-A7EF17EE06E4}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4513</v>
+      </c>
+      <c r="B2" s="4">
+        <f>A2*3.3/$E$6</f>
+        <v>0.22725108720531012</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2">
+        <f>MIN(A2:A33)</f>
+        <v>4513</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6289</v>
+      </c>
+      <c r="B3" s="4">
+        <f t="shared" ref="B3:B33" si="0">A3*3.3/$E$6</f>
+        <v>0.31668116273746849</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3">
+        <f>MAX(A2:A33)</f>
+        <v>32471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6481</v>
+      </c>
+      <c r="B4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.32634927901121535</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E4">
+        <f>AVERAGE(A2:A33)</f>
+        <v>15197.65625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6353</v>
+      </c>
+      <c r="B5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.3199038681620508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8210</v>
+      </c>
+      <c r="B6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41341268024719613</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E6">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7505</v>
+      </c>
+      <c r="B7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.37791256580453192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8994</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.45289082169832912</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9490</v>
+      </c>
+      <c r="B9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.47786678873884186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10418</v>
+      </c>
+      <c r="B10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.52459601739528494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10834</v>
+      </c>
+      <c r="B11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.54554360265506974</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10546</v>
+      </c>
+      <c r="B12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.53104142824444944</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11522</v>
+      </c>
+      <c r="B13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.58018768596932935</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11058</v>
+      </c>
+      <c r="B14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.55682307164110778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12146</v>
+      </c>
+      <c r="B15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.6116090638590066</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>17060</v>
+      </c>
+      <c r="B16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.8590524147402151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>28022</v>
+      </c>
+      <c r="B17" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4110414282444494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>30343</v>
+      </c>
+      <c r="B18" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5279148546578163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>31111</v>
+      </c>
+      <c r="B19" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5665873197528037</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>32151</v>
+      </c>
+      <c r="B20" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6189562829022659</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>32471</v>
+      </c>
+      <c r="B21" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6350698100251773</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>28070</v>
+      </c>
+      <c r="B22" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4134584573128863</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23829</v>
+      </c>
+      <c r="B23" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1999038681620509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22933</v>
+      </c>
+      <c r="B24" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1547859922178987</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>17492</v>
+      </c>
+      <c r="B25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88080567635614559</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>16355</v>
+      </c>
+      <c r="B26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.82355230029755089</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>14547</v>
+      </c>
+      <c r="B27" s="4">
+        <f t="shared" si="0"/>
+        <v>0.73251087205310139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>14019</v>
+      </c>
+      <c r="B28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.70592355230029746</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>13187</v>
+      </c>
+      <c r="B29" s="4">
+        <f t="shared" si="0"/>
+        <v>0.66402838178072787</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>12210</v>
+      </c>
+      <c r="B30" s="4">
+        <f t="shared" si="0"/>
+        <v>0.61483176928358896</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>11250</v>
+      </c>
+      <c r="B31" s="4">
+        <f t="shared" si="0"/>
+        <v>0.56649118791485464</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>8578</v>
+      </c>
+      <c r="B32" s="4">
+        <f t="shared" si="0"/>
+        <v>0.43194323643854426</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>8338</v>
+      </c>
+      <c r="B33" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41985809109636069</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F693A35-9D5A-4349-94FE-8E7583455528}">
+  <dimension ref="A1:F52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>18724</v>
+      </c>
+      <c r="B2" s="4">
+        <f>A2*3.3/$E$6</f>
+        <v>0.9428427557793545</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2">
+        <f>MIN(A2:A52)</f>
+        <v>16179</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>18772</v>
+      </c>
+      <c r="B3" s="4">
+        <f t="shared" ref="B3:B52" si="0">A3/$E$6*3.3</f>
+        <v>0.94525978484779116</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3">
+        <f>MAX(A2:A52)</f>
+        <v>29543</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>22325</v>
+      </c>
+      <c r="B4" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1241702906843671</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E4">
+        <f>AVERAGE(A2:A52)</f>
+        <v>21312.215686274511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>22949</v>
+      </c>
+      <c r="B5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1555916685740442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>22341</v>
+      </c>
+      <c r="B6" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1249759670405126</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E6">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>22677</v>
+      </c>
+      <c r="B7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1418951705195697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>25830</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3006637674525061</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>23909</v>
+      </c>
+      <c r="B9" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2039322499427785</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>23317</v>
+      </c>
+      <c r="B10" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1741222247653924</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>27974</v>
+      </c>
+      <c r="B11" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4086243991760128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>29463</v>
+      </c>
+      <c r="B12" s="4">
+        <f t="shared" si="0"/>
+        <v>1.48360265506981</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>29543</v>
+      </c>
+      <c r="B13" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4876310368505379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>29175</v>
+      </c>
+      <c r="B14" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4691004806591896</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>29255</v>
+      </c>
+      <c r="B15" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4731288624399177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>28775</v>
+      </c>
+      <c r="B16" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4489585717555504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>28839</v>
+      </c>
+      <c r="B17" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4521812771801326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>28919</v>
+      </c>
+      <c r="B18" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4562096589608604</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>29127</v>
+      </c>
+      <c r="B19" s="4">
+        <f t="shared" si="0"/>
+        <v>1.466683451590753</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>29223</v>
+      </c>
+      <c r="B20" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4715175097276265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>29015</v>
+      </c>
+      <c r="B21" s="4">
+        <f t="shared" si="0"/>
+        <v>1.461043717097734</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>29079</v>
+      </c>
+      <c r="B22" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4642664225223161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>28951</v>
+      </c>
+      <c r="B23" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4578210116731516</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23573</v>
+      </c>
+      <c r="B24" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1870130464637216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23525</v>
+      </c>
+      <c r="B25" s="4">
+        <f t="shared" si="0"/>
+        <v>1.184596017395285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>19924</v>
+      </c>
+      <c r="B26" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0032684824902722</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>17892</v>
+      </c>
+      <c r="B27" s="4">
+        <f t="shared" si="0"/>
+        <v>0.90094758525978469</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>17924</v>
+      </c>
+      <c r="B28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.90255893797207598</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>22693</v>
+      </c>
+      <c r="B29" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1427008468757152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>17076</v>
+      </c>
+      <c r="B30" s="4">
+        <f t="shared" si="0"/>
+        <v>0.85985809109636069</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>16724</v>
+      </c>
+      <c r="B31" s="4">
+        <f t="shared" si="0"/>
+        <v>0.84213321126115803</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>16868</v>
+      </c>
+      <c r="B32" s="4">
+        <f t="shared" si="0"/>
+        <v>0.84938429846646812</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>16868</v>
+      </c>
+      <c r="B33" s="4">
+        <f t="shared" si="0"/>
+        <v>0.84938429846646812</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>16916</v>
+      </c>
+      <c r="B34" s="4">
+        <f t="shared" si="0"/>
+        <v>0.85180132753490501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>16836</v>
+      </c>
+      <c r="B35" s="4">
+        <f t="shared" si="0"/>
+        <v>0.84777294575417705</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>16852</v>
+      </c>
+      <c r="B36" s="4">
+        <f t="shared" si="0"/>
+        <v>0.84857862211032264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>16948</v>
+      </c>
+      <c r="B37" s="4">
+        <f t="shared" si="0"/>
+        <v>0.85341268024719619</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>16179</v>
+      </c>
+      <c r="B38" s="4">
+        <f t="shared" si="0"/>
+        <v>0.81468986037994962</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>16420</v>
+      </c>
+      <c r="B39" s="4">
+        <f t="shared" si="0"/>
+        <v>0.82682536049439226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>16852</v>
+      </c>
+      <c r="B40" s="4">
+        <f t="shared" si="0"/>
+        <v>0.84857862211032264</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>16452</v>
+      </c>
+      <c r="B41" s="4">
+        <f t="shared" si="0"/>
+        <v>0.82843671320668344</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>16708</v>
+      </c>
+      <c r="B42" s="4">
+        <f t="shared" si="0"/>
+        <v>0.84132753490501244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>16516</v>
+      </c>
+      <c r="B43" s="4">
+        <f t="shared" si="0"/>
+        <v>0.83165941863126569</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>16676</v>
+      </c>
+      <c r="B44" s="4">
+        <f t="shared" si="0"/>
+        <v>0.83971618219272137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>16516</v>
+      </c>
+      <c r="B45" s="4">
+        <f t="shared" si="0"/>
+        <v>0.83165941863126569</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>16468</v>
+      </c>
+      <c r="B46" s="4">
+        <f t="shared" si="0"/>
+        <v>0.82924238956282892</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>16724</v>
+      </c>
+      <c r="B47" s="4">
+        <f t="shared" si="0"/>
+        <v>0.84213321126115803</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>16371</v>
+      </c>
+      <c r="B48" s="4">
+        <f t="shared" si="0"/>
+        <v>0.82435797665369648</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>16484</v>
+      </c>
+      <c r="B49" s="4">
+        <f t="shared" si="0"/>
+        <v>0.83004806591897451</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>16452</v>
+      </c>
+      <c r="B50" s="4">
+        <f t="shared" si="0"/>
+        <v>0.82843671320668344</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>16452</v>
+      </c>
+      <c r="B51" s="4">
+        <f t="shared" si="0"/>
+        <v>0.82843671320668344</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>16852</v>
+      </c>
+      <c r="B52" s="4">
+        <f t="shared" si="0"/>
+        <v>0.84857862211032264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>